--- a/resources/county_code_list.xlsx
+++ b/resources/county_code_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/effective_property_tax/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F1E15F7-645B-4181-B8DF-3DBDFC92C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{6F1E15F7-645B-4181-B8DF-3DBDFC92C97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4A08201-AEDB-4181-B5F1-ED09CC151125}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A295DAB7-E12D-493A-958E-C295097A1955}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A295DAB7-E12D-493A-958E-C295097A1955}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350AC342-450C-4A94-972C-7B7E8AC372AF}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
